--- a/StrTruthTable.xlsx
+++ b/StrTruthTable.xlsx
@@ -11341,145 +11341,145 @@
 ACCESS NOTE: Side of body fairing must be removed to gain access. For HFEC inspections the carriage must be cycled to gain access.</t>
   </si>
   <si>
-    <t>AIRPLANE NOTE: Applicable to airplane L/N 1221 and on and to those airplanes with the New Flight Deck Security Door installed by the customer specific Boeing Service Bulletins.</t>
-  </si>
-  <si>
-    <t>AIRPLANE NOTE: For airplanes with airstairs door only.</t>
-  </si>
-  <si>
-    <t>AIRPLANE NOTE: Zone 832 and 842 are applicable to 737-800, 737-800BCF and 737-900 only.</t>
-  </si>
-  <si>
-    <t>AIRPLANE NOTE: Task not applicable to -900ER and -800 with Flat Pressure Bulkhead installed.</t>
-  </si>
-  <si>
-    <t>AIRPLANE NOTE: Task not applicable to -900ER, -800, and -800BCF with Flat Pressure Bulkhead installed.</t>
-  </si>
-  <si>
-    <t>AIRPLANE NOTE: Applicable to airplanes L/N 1 to 1388.</t>
-  </si>
-  <si>
-    <t>AIRPLANE NOTE: Applicable to airplanes L/N 1389 and on.</t>
-  </si>
-  <si>
-    <t>AIRPLANE NOTE: Applicable to airplanes with airstair door installed.</t>
-  </si>
-  <si>
-    <t>AIRPLANE NOTE: For the 737-600, GPS Antennas are located at STA 482A.</t>
-  </si>
-  <si>
-    <t>AIRPLANE NOTE: Applicable to 737-600/-700 airplanes L/N 1193 and on, and all 737-700C/-700IGW/-800/-900/-900ER.</t>
-  </si>
-  <si>
-    <t>AIRPLANE NOTE: For the 737-600 and -700, STA 616 and STA 639.</t>
-  </si>
-  <si>
-    <t>AIRPLANE NOTE: Applicable to airplanes with the antenna installed, or if structural provisions are installed with an external cover in lieu of the antenna.</t>
-  </si>
-  <si>
-    <t>AIRPLANE NOTE: Applicable to all models except -800FPB and -900ER.</t>
-  </si>
-  <si>
-    <t>AIRPLANE NOTE: For L/N 721 and on, the inspection also includes the web adjacent to the stiffeners between stringers S-1 and S-3, S-3 and S-5, and S-5 and S-7 on both sides of the aircraft. Applicable to all models except -800FPB and -900ER.</t>
-  </si>
-  <si>
-    <t>AIRPLANE NOTE: For L/N 1057 and on, this inspection applies only to the splices between stringer S-16 and S-17A. Applicable to all models except -800FPB and -900ER.</t>
-  </si>
-  <si>
-    <t>AIRPLANE NOTE: Applicable to all L/N 1057 and on, except -800FPB and -900ER.</t>
-  </si>
-  <si>
-    <t>AIRPLANE NOTE: All aircraft L/N 1756 and on, except -800FPB and -900ER.</t>
-  </si>
-  <si>
-    <t>AIRPLANE NOTE: Applicable to L/N 1 to 1198.</t>
-  </si>
-  <si>
-    <t>AIRPLANE NOTE: Applicable to all aircrafts from L/N 1199 and on.</t>
-  </si>
-  <si>
-    <t>AIRPLANE NOTE: This inspection applies to airplane L/N # 1 thru 215 with hinge rib lug thickness of t=0.20 inch.</t>
-  </si>
-  <si>
-    <t>AIRPLANE NOTE: This inspection applies to L/N 216 and on. All airplanes L/N 216 and on are delivered with hinge rib clevis lug thickness of t=0.25 inch.</t>
-  </si>
-  <si>
-    <t>AIRPLANE NOTE: Applicable to L/N 596 and ALL 1175 and on and L/N 1 to 1174 that have incorporated SB 737-55A1080 or SB 737-55-1081.</t>
-  </si>
-  <si>
-    <t>AIRPLANE NOTE: Applicable to L/N 596 and ALL 1175 and On, and L/N 1 - 1174 that have incorporated SB 737-55A1080 or SB 737-55-1081.</t>
-  </si>
-  <si>
-    <t>AIRPLANE NOTE: Applicable to L/N 596 and ALL 1175 and on, and L/N 1 - 1174 that have incorporated SB 737-55A1080 or SB 737-55-1081.</t>
-  </si>
-  <si>
-    <t>AIRPLANE NOTE: All airplanes equipped with winglets.</t>
-  </si>
-  <si>
-    <t>AIRPLANE NOTE: Applicable to -900ER and -800 with Flat Pressure Bulkhead installed.</t>
-  </si>
-  <si>
-    <t>AIRPLANE NOTE: Applicable to -900ER and -800 airplanes with Flat Pressure Bulkhead installed.</t>
-  </si>
-  <si>
-    <t>AIRPLANE NOTE: Applicable to airplanes with a KU antenna radome installed at STA 727D to 727H+5, S-4L to S-4R (737-800 and 737-900ER Only).</t>
-  </si>
-  <si>
-    <t>AIRPLANE NOTE: Applicable to -800FPB and -900ER.</t>
-  </si>
-  <si>
-    <t>AIRPLANE NOTE: Applicable to 737-800, -900ER with production installed winglets per Section 9, Table 9-1.</t>
-  </si>
-  <si>
-    <t>AIRPLANE NOTE: Applicable to airplanes with mid exit structural plugs installed.</t>
-  </si>
-  <si>
-    <t>AIRPLANE NOTE: Applicable to airplanes with a KU antenna radome installed at Sta. 727D to 727H+5, S-4L to S-4R (737-800, 737-800BCF and 737-900ER Only).</t>
-  </si>
-  <si>
-    <t>AIRPLANE NOTE: For the 737-600 GPS Antennas are located at Sta 482A + 5, LBL 5 and RBL 5. Applicable to airplanes with the antenna installed, or if structural provisions are installed with an external cover in lieu of the antenna.</t>
-  </si>
-  <si>
-    <t>AIRPLANE NOTE: Applicable to -700/-700C/-700IGW/-800/-900ER airplanes L/N 6473 and on.</t>
-  </si>
-  <si>
-    <t>AIRPLANE NOTE: Applicable to 737-600 and 737-700 airplanes L/N 1-1192. See interval note for airplane specific threshold and repeat intervals.</t>
-  </si>
-  <si>
-    <t>AIRPLANE NOTE: Applicable to airplane line number 9 and on.</t>
-  </si>
-  <si>
-    <t>AIRPLANE NOTE: Applicable to 737-800 (line number 9 and on) and 737-900 airplanes.</t>
-  </si>
-  <si>
-    <t>AIRPLANE NOTE: For the -600 the NDI inspection procedures are contained in Part 6, Subject 53-30-38.</t>
-  </si>
-  <si>
-    <t>AIRPLANE NOTE: This inspection applies to production units YA001 through YA005 and YA231.</t>
-  </si>
-  <si>
-    <t>AIRPLANE NOTE: Inspection applicable to airplane YC001 and YC002.</t>
-  </si>
-  <si>
-    <t>AIRPLANE NOTE: For the 737-600 and -700, STA 616.</t>
-  </si>
-  <si>
-    <t>AIRPLANE NOTE: This inspection is applicable to -600/-700/-700C/-700IGW/-800 L/N 1 to 1174, which have not incorporated SB 737-55A1080. AD 2003-03-22 mandates SB 737-55A1080 prior to 18000 FC.</t>
-  </si>
-  <si>
-    <t>AIRPLANE NOTE: Applicable to -600/-700/-700C/-700IGW/-800 L/N 1 to 1174 which have not incorporated SB 737-55A1080. AD 2003-03-22 mandates SB 737-55A1080 prior to 18000 FC.</t>
-  </si>
-  <si>
-    <t>AIRPLANE NOTE: This inspection is applicable to -900 - L/N 683 to 1174.</t>
-  </si>
-  <si>
-    <t>AIRPLANE NOTE: Applicable to -900 - L/N 683 to 1174.</t>
-  </si>
-  <si>
-    <t>AIRPLANE NOTE: All except 900ER</t>
-  </si>
-  <si>
-    <t>AIRPLANE NOTE: Applies to 737-700, 737-800 and 737-900 ER with production installed winglets per Section 9, Table 9-1.</t>
+    <t xml:space="preserve"> Applicable to airplane L/N 1221 and on and to those airplanes with the New Flight Deck Security Door installed by the customer specific Boeing Service Bulletins.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> For airplanes with airstairs door only.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Zone 832 and 842 are applicable to 737-800, 737-800BCF and 737-900 only.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Task not applicable to -900ER and -800 with Flat Pressure Bulkhead installed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Task not applicable to -900ER, -800, and -800BCF with Flat Pressure Bulkhead installed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Applicable to airplanes L/N 1 to 1388.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Applicable to airplanes L/N 1389 and on.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Applicable to airplanes with airstair door installed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> For the 737-600, GPS Antennas are located at STA 482A.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Applicable to 737-600/-700 airplanes L/N 1193 and on, and all 737-700C/-700IGW/-800/-900/-900ER.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> For the 737-600 and -700, STA 616 and STA 639.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Applicable to airplanes with the antenna installed, or if structural provisions are installed with an external cover in lieu of the antenna.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Applicable to all models except -800FPB and -900ER.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> For L/N 721 and on, the inspection also includes the web adjacent to the stiffeners between stringers S-1 and S-3, S-3 and S-5, and S-5 and S-7 on both sides of the aircraft. Applicable to all models except -800FPB and -900ER.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> For L/N 1057 and on, this inspection applies only to the splices between stringer S-16 and S-17A. Applicable to all models except -800FPB and -900ER.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Applicable to all L/N 1057 and on, except -800FPB and -900ER.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> All aircraft L/N 1756 and on, except -800FPB and -900ER.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Applicable to L/N 1 to 1198.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Applicable to all aircrafts from L/N 1199 and on.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> This inspection applies to airplane L/N # 1 thru 215 with hinge rib lug thickness of t=0.20 inch.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> This inspection applies to L/N 216 and on. All airplanes L/N 216 and on are delivered with hinge rib clevis lug thickness of t=0.25 inch.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Applicable to L/N 596 and ALL 1175 and on and L/N 1 to 1174 that have incorporated SB 737-55A1080 or SB 737-55-1081.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Applicable to L/N 596 and ALL 1175 and On, and L/N 1 - 1174 that have incorporated SB 737-55A1080 or SB 737-55-1081.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Applicable to L/N 596 and ALL 1175 and on, and L/N 1 - 1174 that have incorporated SB 737-55A1080 or SB 737-55-1081.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> All airplanes equipped with winglets.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Applicable to -900ER and -800 with Flat Pressure Bulkhead installed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Applicable to -900ER and -800 airplanes with Flat Pressure Bulkhead installed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Applicable to airplanes with a KU antenna radome installed at STA 727D to 727H+5, S-4L to S-4R (737-800 and 737-900ER Only).</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Applicable to -800FPB and -900ER.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Applicable to 737-800, -900ER with production installed winglets per Section 9, Table 9-1.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Applicable to airplanes with mid exit structural plugs installed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Applicable to airplanes with a KU antenna radome installed at Sta. 727D to 727H+5, S-4L to S-4R (737-800, 737-800BCF and 737-900ER Only).</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> For the 737-600 GPS Antennas are located at Sta 482A + 5, LBL 5 and RBL 5. Applicable to airplanes with the antenna installed, or if structural provisions are installed with an external cover in lieu of the antenna.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Applicable to -700/-700C/-700IGW/-800/-900ER airplanes L/N 6473 and on.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Applicable to 737-600 and 737-700 airplanes L/N 1-1192. See interval note for airplane specific threshold and repeat intervals.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Applicable to airplane line number 9 and on.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Applicable to 737-800 (line number 9 and on) and 737-900 airplanes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> For the -600 the NDI inspection procedures are contained in Part 6, Subject 53-30-38.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> This inspection applies to production units YA001 through YA005 and YA231.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Inspection applicable to airplane YC001 and YC002.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> For the 737-600 and -700, STA 616.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> This inspection is applicable to -600/-700/-700C/-700IGW/-800 L/N 1 to 1174, which have not incorporated SB 737-55A1080. AD 2003-03-22 mandates SB 737-55A1080 prior to 18000 FC.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Applicable to -600/-700/-700C/-700IGW/-800 L/N 1 to 1174 which have not incorporated SB 737-55A1080. AD 2003-03-22 mandates SB 737-55A1080 prior to 18000 FC.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> This inspection is applicable to -900 - L/N 683 to 1174.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Applicable to -900 - L/N 683 to 1174.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> All except 900ER</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Applies to 737-700, 737-800 and 737-900 ER with production installed winglets per Section 9, Table 9-1.</t>
   </si>
 </sst>
 </file>
